--- a/demo/导表/电气入库/4.2 110kV避雷器.xlsx
+++ b/demo/导表/电气入库/4.2 110kV避雷器.xlsx
@@ -19,36 +19,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>避雷器额定电压</t>
-  </si>
-  <si>
-    <t>避雷器持续运行电压</t>
+    <t>YH10WZ-108/281</t>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>RatedVoltageArrester</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>避雷器的标称放电电流</t>
-  </si>
-  <si>
-    <t>雷电冲击电流残压</t>
-  </si>
-  <si>
-    <t>YH10WZ-108/281</t>
+    <t>OperatingVoltageArrester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningResidualVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DischargeCurrentArrester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +67,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Medium"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,51 +448,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>108</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>84</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>281</v>
       </c>
     </row>
